--- a/inst/extdata/FNDB.xlsx
+++ b/inst/extdata/FNDB.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>106.2135848935422</v>
+        <v>106.213585</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>104.2975145134792</v>
+        <v>104.297515</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>103.3261530409209</v>
+        <v>103.326153</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>101.6018101714863</v>
+        <v>101.60181</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>101.5509901261948</v>
+        <v>101.55099</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>100.9410309431879</v>
+        <v>100.941031</v>
       </c>
     </row>
     <row r="8">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>102.8432224662528</v>
+        <v>102.843222</v>
       </c>
     </row>
     <row r="9">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>103.6190221975462</v>
+        <v>103.619022</v>
       </c>
     </row>
     <row r="10">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>102.6339368074171</v>
+        <v>102.633937</v>
       </c>
     </row>
     <row r="11">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>102.9493075386593</v>
+        <v>102.949308</v>
       </c>
     </row>
     <row r="12">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>100.5932179147777</v>
+        <v>100.593218</v>
       </c>
     </row>
     <row r="13">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>101.1999314924217</v>
+        <v>101.199931</v>
       </c>
     </row>
     <row r="14">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>101.544831967191</v>
+        <v>101.544832</v>
       </c>
     </row>
     <row r="15">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>102.2426293942117</v>
+        <v>102.242629</v>
       </c>
     </row>
     <row r="16">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>101.8653207541108</v>
+        <v>101.865321</v>
       </c>
     </row>
     <row r="17">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>102.1853956669395</v>
+        <v>102.185396</v>
       </c>
     </row>
     <row r="18">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>102.4062968585639</v>
+        <v>102.406297</v>
       </c>
     </row>
     <row r="19">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>102.4697649085371</v>
+        <v>102.469765</v>
       </c>
     </row>
     <row r="20">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B20">
-        <v>103.2040927251618</v>
+        <v>103.204093</v>
       </c>
     </row>
     <row r="21">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B21">
-        <v>102.4791789138328</v>
+        <v>102.479179</v>
       </c>
     </row>
     <row r="22">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="B22">
-        <v>102.3950002032758</v>
+        <v>102.395</v>
       </c>
     </row>
     <row r="23">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="B23">
-        <v>101.0427084597026</v>
+        <v>101.042708</v>
       </c>
     </row>
     <row r="24">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B24">
-        <v>101.2474830889549</v>
+        <v>101.247483</v>
       </c>
     </row>
     <row r="25">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B25">
-        <v>101.5620247425785</v>
+        <v>101.562025</v>
       </c>
     </row>
     <row r="26">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B26">
-        <v>99.71089251488966</v>
+        <v>99.710893</v>
       </c>
     </row>
     <row r="27">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B27">
-        <v>98.94155963843076</v>
+        <v>98.94156</v>
       </c>
     </row>
     <row r="28">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B28">
-        <v>100.3304415557388</v>
+        <v>100.330442</v>
       </c>
     </row>
     <row r="29">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="B29">
-        <v>100.8633414240036</v>
+        <v>100.863341</v>
       </c>
     </row>
     <row r="30">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B30">
-        <v>101.9228897745591</v>
+        <v>101.92289</v>
       </c>
     </row>
     <row r="31">
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="B31">
-        <v>101.7620597675925</v>
+        <v>101.76206</v>
       </c>
     </row>
     <row r="32">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="B32">
-        <v>102.8275847609437</v>
+        <v>102.827585</v>
       </c>
     </row>
     <row r="33">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B33">
-        <v>102.5268039689307</v>
+        <v>102.526804</v>
       </c>
     </row>
     <row r="34">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="B34">
-        <v>101.8380503801196</v>
+        <v>101.83805</v>
       </c>
     </row>
     <row r="35">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="B35">
-        <v>101.3246132637112</v>
+        <v>101.324613</v>
       </c>
     </row>
     <row r="36">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B36">
-        <v>100.1504281655517</v>
+        <v>100.150428</v>
       </c>
     </row>
     <row r="37">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B37">
-        <v>101.172402835578</v>
+        <v>101.172403</v>
       </c>
     </row>
     <row r="38">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="B38">
-        <v>101.9910475103489</v>
+        <v>101.991048</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="B39">
-        <v>101.1148613221981</v>
+        <v>101.114861</v>
       </c>
     </row>
     <row r="40">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="B40">
-        <v>101.7701133440584</v>
+        <v>101.770113</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="B41">
-        <v>101.5699441365636</v>
+        <v>101.569944</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="B42">
-        <v>101.3574328368718</v>
+        <v>101.357433</v>
       </c>
     </row>
     <row r="43">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="B43">
-        <v>102.2965759049639</v>
+        <v>102.296576</v>
       </c>
     </row>
     <row r="44">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B44">
-        <v>102.8729478857056</v>
+        <v>102.872948</v>
       </c>
     </row>
     <row r="45">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="B45">
-        <v>103.6471285983239</v>
+        <v>103.647129</v>
       </c>
     </row>
     <row r="46">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B46">
-        <v>102.4562505434014</v>
+        <v>102.456251</v>
       </c>
     </row>
     <row r="47">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="B47">
-        <v>102.6419219628386</v>
+        <v>102.641922</v>
       </c>
     </row>
     <row r="48">
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="B48">
-        <v>101.8837192547427</v>
+        <v>101.883719</v>
       </c>
     </row>
     <row r="49">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="B49">
-        <v>102.4673140060466</v>
+        <v>102.467314</v>
       </c>
     </row>
     <row r="50">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="B50">
-        <v>102.8742652458295</v>
+        <v>102.874265</v>
       </c>
     </row>
     <row r="51">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="B51">
-        <v>103.7997652003815</v>
+        <v>103.799765</v>
       </c>
     </row>
     <row r="52">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B52">
-        <v>103.0581321078971</v>
+        <v>103.058132</v>
       </c>
     </row>
     <row r="53">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="B53">
-        <v>103.9141269294858</v>
+        <v>103.914127</v>
       </c>
     </row>
     <row r="54">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="B54">
-        <v>104.3509057269841</v>
+        <v>104.350906</v>
       </c>
     </row>
     <row r="55">
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="B55">
-        <v>104.8798826265123</v>
+        <v>104.879883</v>
       </c>
     </row>
     <row r="56">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="B56">
-        <v>103.8634617959573</v>
+        <v>103.863462</v>
       </c>
     </row>
     <row r="57">
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="B57">
-        <v>103.0066503390044</v>
+        <v>103.00665</v>
       </c>
     </row>
     <row r="58">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="B58">
-        <v>101.4599335696385</v>
+        <v>101.459934</v>
       </c>
     </row>
     <row r="59">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B59">
-        <v>101.8194416828979</v>
+        <v>101.819442</v>
       </c>
     </row>
     <row r="60">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="B60">
-        <v>102.9692825780826</v>
+        <v>102.969283</v>
       </c>
     </row>
     <row r="61">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="B61">
-        <v>103.123395414475</v>
+        <v>103.123395</v>
       </c>
     </row>
     <row r="62">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="B62">
-        <v>101.8816853738559</v>
+        <v>101.881685</v>
       </c>
     </row>
     <row r="63">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="B63">
-        <v>101.5912626714444</v>
+        <v>101.591263</v>
       </c>
     </row>
     <row r="64">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="B64">
-        <v>101.5554405537542</v>
+        <v>101.555441</v>
       </c>
     </row>
     <row r="65">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="B65">
-        <v>101.9322463415866</v>
+        <v>101.932246</v>
       </c>
     </row>
     <row r="66">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B66">
-        <v>101.657656365727</v>
+        <v>101.657656</v>
       </c>
     </row>
     <row r="67">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B67">
-        <v>103.187325565673</v>
+        <v>103.187326</v>
       </c>
     </row>
     <row r="68">
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="B68">
-        <v>103.0862551995852</v>
+        <v>103.086255</v>
       </c>
     </row>
     <row r="69">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="B69">
-        <v>103.8306817824551</v>
+        <v>103.830682</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="B70">
-        <v>105.7996878978198</v>
+        <v>105.799688</v>
       </c>
     </row>
     <row r="71">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="B71">
-        <v>106.4697577311011</v>
+        <v>106.469758</v>
       </c>
     </row>
     <row r="72">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="B72">
-        <v>107.6173727847363</v>
+        <v>107.617373</v>
       </c>
     </row>
     <row r="73">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="B73">
-        <v>107.9666928543816</v>
+        <v>107.966693</v>
       </c>
     </row>
     <row r="74">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="B74">
-        <v>108.2154541403043</v>
+        <v>108.215454</v>
       </c>
     </row>
     <row r="75">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="B75">
-        <v>108.7344663530574</v>
+        <v>108.734466</v>
       </c>
     </row>
     <row r="76">
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="B76">
-        <v>109.2220926880022</v>
+        <v>109.222093</v>
       </c>
     </row>
     <row r="77">
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="B77">
-        <v>107.5040343088198</v>
+        <v>107.504034</v>
       </c>
     </row>
     <row r="78">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="B78">
-        <v>106.8146238415833</v>
+        <v>106.814624</v>
       </c>
     </row>
     <row r="79">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="B79">
-        <v>107.2766274530096</v>
+        <v>107.276627</v>
       </c>
     </row>
     <row r="80">
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="B80">
-        <v>106.9768545770642</v>
+        <v>106.976855</v>
       </c>
     </row>
     <row r="81">
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="B81">
-        <v>106.0991557124525</v>
+        <v>106.099156</v>
       </c>
     </row>
     <row r="82">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="B82">
-        <v>106.1575988375858</v>
+        <v>106.157599</v>
       </c>
     </row>
     <row r="83">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="B83">
-        <v>106.7023527512403</v>
+        <v>106.702353</v>
       </c>
     </row>
     <row r="84">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="B84">
-        <v>104.9093227507538</v>
+        <v>104.909323</v>
       </c>
     </row>
     <row r="85">
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="B85">
-        <v>104.4999379385446</v>
+        <v>104.499938</v>
       </c>
     </row>
     <row r="86">
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="B86">
-        <v>104.9564654450945</v>
+        <v>104.956465</v>
       </c>
     </row>
     <row r="87">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="B87">
-        <v>102.4638994540586</v>
+        <v>102.463899</v>
       </c>
     </row>
     <row r="88">
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="B88">
-        <v>100.8540187177911</v>
+        <v>100.854019</v>
       </c>
     </row>
     <row r="89">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="B89">
-        <v>102.3905777783464</v>
+        <v>102.390578</v>
       </c>
     </row>
     <row r="90">
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="B90">
-        <v>102.9825982978186</v>
+        <v>102.982598</v>
       </c>
     </row>
     <row r="91">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="B91">
-        <v>103.3071405331203</v>
+        <v>103.307141</v>
       </c>
     </row>
     <row r="92">
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="B92">
-        <v>102.3540517332343</v>
+        <v>102.354052</v>
       </c>
     </row>
     <row r="93">
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="B93">
-        <v>102.0787315326628</v>
+        <v>102.078732</v>
       </c>
     </row>
     <row r="94">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="B94">
-        <v>100.3983273708844</v>
+        <v>100.398327</v>
       </c>
     </row>
     <row r="95">
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="B95">
-        <v>99.07638477672197</v>
+        <v>99.076385</v>
       </c>
     </row>
     <row r="96">
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="B96">
-        <v>98.47107182821399</v>
+        <v>98.47107200000001</v>
       </c>
     </row>
     <row r="97">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="B97">
-        <v>98.11055380575702</v>
+        <v>98.11055399999999</v>
       </c>
     </row>
     <row r="98">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="B98">
-        <v>98.13139723438647</v>
+        <v>98.13139700000001</v>
       </c>
     </row>
     <row r="99">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="B99">
-        <v>97.60240756963321</v>
+        <v>97.602408</v>
       </c>
     </row>
     <row r="100">
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="B100">
-        <v>97.39753821804695</v>
+        <v>97.397538</v>
       </c>
     </row>
     <row r="101">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="B101">
-        <v>97.19461295089182</v>
+        <v>97.194613</v>
       </c>
     </row>
     <row r="102">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="B102">
-        <v>98.49243724549925</v>
+        <v>98.492437</v>
       </c>
     </row>
     <row r="103">
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="B103">
-        <v>98.22711014886278</v>
+        <v>98.22711</v>
       </c>
     </row>
     <row r="104">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="B104">
-        <v>99.71068266651922</v>
+        <v>99.710683</v>
       </c>
     </row>
     <row r="105">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="B105">
-        <v>98.60972606327391</v>
+        <v>98.60972599999999</v>
       </c>
     </row>
     <row r="106">
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="B106">
-        <v>98.05521336624913</v>
+        <v>98.05521299999999</v>
       </c>
     </row>
     <row r="107">
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="B107">
-        <v>99.71001357407008</v>
+        <v>99.710014</v>
       </c>
     </row>
     <row r="108">
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="B108">
-        <v>99.14896167755688</v>
+        <v>99.148962</v>
       </c>
     </row>
     <row r="109">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B109">
-        <v>98.4686414265513</v>
+        <v>98.46864100000001</v>
       </c>
     </row>
     <row r="110">
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="B110">
-        <v>99.04111253339772</v>
+        <v>99.041113</v>
       </c>
     </row>
     <row r="111">
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="B111">
-        <v>98.8063863542433</v>
+        <v>98.806386</v>
       </c>
     </row>
     <row r="112">
@@ -1476,7 +1476,7 @@
         </is>
       </c>
       <c r="B112">
-        <v>100.6359545747951</v>
+        <v>100.635955</v>
       </c>
     </row>
     <row r="113">
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="B113">
-        <v>101.288039298043</v>
+        <v>101.288039</v>
       </c>
     </row>
     <row r="114">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="B114">
-        <v>101.4084494141442</v>
+        <v>101.408449</v>
       </c>
     </row>
     <row r="115">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="B115">
-        <v>101.0813580926724</v>
+        <v>101.081358</v>
       </c>
     </row>
     <row r="116">
@@ -1516,7 +1516,7 @@
         </is>
       </c>
       <c r="B116">
-        <v>100.2619909568066</v>
+        <v>100.261991</v>
       </c>
     </row>
     <row r="117">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="B117">
-        <v>100.0723221649612</v>
+        <v>100.072322</v>
       </c>
     </row>
     <row r="118">
@@ -1536,7 +1536,7 @@
         </is>
       </c>
       <c r="B118">
-        <v>100.5983659819071</v>
+        <v>100.598366</v>
       </c>
     </row>
     <row r="119">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="B119">
-        <v>99.69286544680071</v>
+        <v>99.692865</v>
       </c>
     </row>
     <row r="120">
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="B120">
-        <v>98.26050960055721</v>
+        <v>98.26051</v>
       </c>
     </row>
     <row r="121">
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="B121">
-        <v>98.57250417355326</v>
+        <v>98.572504</v>
       </c>
     </row>
     <row r="122">
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="B122">
-        <v>99.53880622589783</v>
+        <v>99.53880599999999</v>
       </c>
     </row>
     <row r="123">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="B123">
-        <v>98.97416736104684</v>
+        <v>98.97416699999999</v>
       </c>
     </row>
     <row r="124">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="B124">
-        <v>98.15683055277627</v>
+        <v>98.156831</v>
       </c>
     </row>
     <row r="125">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B125">
-        <v>98.00302812116588</v>
+        <v>98.003028</v>
       </c>
     </row>
     <row r="126">
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="B126">
-        <v>98.04784276558969</v>
+        <v>98.047843</v>
       </c>
     </row>
     <row r="127">
@@ -1626,7 +1626,7 @@
         </is>
       </c>
       <c r="B127">
-        <v>97.99917444075371</v>
+        <v>97.999174</v>
       </c>
     </row>
     <row r="128">
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="B128">
-        <v>97.30062841727235</v>
+        <v>97.300628</v>
       </c>
     </row>
     <row r="129">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="B129">
-        <v>96.80158545180771</v>
+        <v>96.801585</v>
       </c>
     </row>
     <row r="130">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="B130">
-        <v>98.24964763271031</v>
+        <v>98.24964799999999</v>
       </c>
     </row>
     <row r="131">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="B131">
-        <v>99.47439574077414</v>
+        <v>99.474396</v>
       </c>
     </row>
     <row r="132">
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="B132">
-        <v>97.84377219834619</v>
+        <v>97.843772</v>
       </c>
     </row>
     <row r="133">
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="B133">
-        <v>97.00012849581796</v>
+        <v>97.000128</v>
       </c>
     </row>
     <row r="134">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="B134">
-        <v>96.23817490312328</v>
+        <v>96.238175</v>
       </c>
     </row>
     <row r="135">
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="B135">
-        <v>97.21729558077332</v>
+        <v>97.217296</v>
       </c>
     </row>
     <row r="136">
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="B136">
-        <v>97.56991872009041</v>
+        <v>97.569919</v>
       </c>
     </row>
     <row r="137">
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="B137">
-        <v>96.9027807015201</v>
+        <v>96.902781</v>
       </c>
     </row>
     <row r="138">
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="B138">
-        <v>97.47052763101752</v>
+        <v>97.470528</v>
       </c>
     </row>
     <row r="139">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="B139">
-        <v>95.6878073905481</v>
+        <v>95.68780700000001</v>
       </c>
     </row>
     <row r="140">
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="B140">
-        <v>95.88613907904895</v>
+        <v>95.886139</v>
       </c>
     </row>
     <row r="141">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="B141">
-        <v>94.47340525069163</v>
+        <v>94.473405</v>
       </c>
     </row>
     <row r="142">
@@ -1776,7 +1776,7 @@
         </is>
       </c>
       <c r="B142">
-        <v>94.80128801058557</v>
+        <v>94.801288</v>
       </c>
     </row>
     <row r="143">
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="B143">
-        <v>95.25554488717123</v>
+        <v>95.255545</v>
       </c>
     </row>
     <row r="144">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="B144">
-        <v>93.91344135294827</v>
+        <v>93.91344100000001</v>
       </c>
     </row>
     <row r="145">
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="B145">
-        <v>93.70545061846896</v>
+        <v>93.705451</v>
       </c>
     </row>
     <row r="146">
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="B146">
-        <v>94.02464286155337</v>
+        <v>94.024643</v>
       </c>
     </row>
     <row r="147">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="B147">
-        <v>93.16913329381505</v>
+        <v>93.169133</v>
       </c>
     </row>
     <row r="148">
@@ -1836,7 +1836,7 @@
         </is>
       </c>
       <c r="B148">
-        <v>93.11901545293686</v>
+        <v>93.119015</v>
       </c>
     </row>
     <row r="149">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="B149">
-        <v>94.0992024246661</v>
+        <v>94.09920200000001</v>
       </c>
     </row>
     <row r="150">
@@ -1856,7 +1856,7 @@
         </is>
       </c>
       <c r="B150">
-        <v>93.62286666614952</v>
+        <v>93.622867</v>
       </c>
     </row>
     <row r="151">
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="B151">
-        <v>94.83478597625952</v>
+        <v>94.83478599999999</v>
       </c>
     </row>
     <row r="152">
@@ -1876,7 +1876,7 @@
         </is>
       </c>
       <c r="B152">
-        <v>95.50988496706381</v>
+        <v>95.509885</v>
       </c>
     </row>
     <row r="153">
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="B153">
-        <v>95.88952353266339</v>
+        <v>95.88952399999999</v>
       </c>
     </row>
     <row r="154">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="B154">
-        <v>97.2577240617393</v>
+        <v>97.257724</v>
       </c>
     </row>
     <row r="155">
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="B155">
-        <v>97.03977610678839</v>
+        <v>97.039776</v>
       </c>
     </row>
     <row r="156">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="B156">
-        <v>96.86164742009987</v>
+        <v>96.861647</v>
       </c>
     </row>
     <row r="157">
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="B157">
-        <v>96.8766458264865</v>
+        <v>96.87664599999999</v>
       </c>
     </row>
     <row r="158">
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="B158">
-        <v>96.62180654590109</v>
+        <v>96.621807</v>
       </c>
     </row>
     <row r="159">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="B159">
-        <v>96.89148543252209</v>
+        <v>96.891485</v>
       </c>
     </row>
     <row r="160">
@@ -1956,7 +1956,7 @@
         </is>
       </c>
       <c r="B160">
-        <v>97.31361552819151</v>
+        <v>97.313616</v>
       </c>
     </row>
     <row r="161">
@@ -1966,7 +1966,7 @@
         </is>
       </c>
       <c r="B161">
-        <v>97.85235144889326</v>
+        <v>97.852351</v>
       </c>
     </row>
     <row r="162">
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="B162">
-        <v>97.39162771109963</v>
+        <v>97.391628</v>
       </c>
     </row>
     <row r="163">
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="B163">
-        <v>97.31905939761863</v>
+        <v>97.319059</v>
       </c>
     </row>
     <row r="164">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="B164">
-        <v>96.65297921068171</v>
+        <v>96.652979</v>
       </c>
     </row>
     <row r="165">
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="B165">
-        <v>97.00365942235545</v>
+        <v>97.003659</v>
       </c>
     </row>
     <row r="166">
@@ -2016,7 +2016,7 @@
         </is>
       </c>
       <c r="B166">
-        <v>96.33494323725557</v>
+        <v>96.334943</v>
       </c>
     </row>
     <row r="167">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="B167">
-        <v>95.92021230643016</v>
+        <v>95.92021200000001</v>
       </c>
     </row>
     <row r="168">
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="B168">
-        <v>95.22387573203494</v>
+        <v>95.223876</v>
       </c>
     </row>
     <row r="169">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="B169">
-        <v>94.82418907701989</v>
+        <v>94.824189</v>
       </c>
     </row>
     <row r="170">
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="B170">
-        <v>95.07898308838404</v>
+        <v>95.07898299999999</v>
       </c>
     </row>
     <row r="171">
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="B171">
-        <v>95.88229754856404</v>
+        <v>95.88229800000001</v>
       </c>
     </row>
     <row r="172">
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="B172">
-        <v>95.06928026862637</v>
+        <v>95.06928000000001</v>
       </c>
     </row>
     <row r="173">
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="B173">
-        <v>95.37916734777588</v>
+        <v>95.379167</v>
       </c>
     </row>
     <row r="174">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="B174">
-        <v>95.59526344185745</v>
+        <v>95.595263</v>
       </c>
     </row>
     <row r="175">
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="B175">
-        <v>96.1052896451681</v>
+        <v>96.10529</v>
       </c>
     </row>
     <row r="176">
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="B176">
-        <v>95.85706268504993</v>
+        <v>95.857063</v>
       </c>
     </row>
     <row r="177">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="B177">
-        <v>96.52706279668281</v>
+        <v>96.527063</v>
       </c>
     </row>
     <row r="178">
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="B178">
-        <v>97.83522540293295</v>
+        <v>97.83522499999999</v>
       </c>
     </row>
     <row r="179">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="B179">
-        <v>98.24440901114198</v>
+        <v>98.244409</v>
       </c>
     </row>
     <row r="180">
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="B180">
-        <v>98.29864757500214</v>
+        <v>98.298648</v>
       </c>
     </row>
     <row r="181">
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="B181">
-        <v>97.5444470411645</v>
+        <v>97.54444700000001</v>
       </c>
     </row>
     <row r="182">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="B182">
-        <v>96.99415791471982</v>
+        <v>96.994158</v>
       </c>
     </row>
     <row r="183">
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="B183">
-        <v>97.56380502829771</v>
+        <v>97.563805</v>
       </c>
     </row>
     <row r="184">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="B184">
-        <v>97.51540906877716</v>
+        <v>97.51540900000001</v>
       </c>
     </row>
     <row r="185">
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="B185">
-        <v>97.31390057166817</v>
+        <v>97.313901</v>
       </c>
     </row>
     <row r="186">
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="B186">
-        <v>97.65995712807872</v>
+        <v>97.65995700000001</v>
       </c>
     </row>
     <row r="187">
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="B187">
-        <v>97.41609685507875</v>
+        <v>97.41609699999999</v>
       </c>
     </row>
     <row r="188">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B188">
-        <v>97.04075021194495</v>
+        <v>97.04075</v>
       </c>
     </row>
     <row r="189">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="B189">
-        <v>96.93281961446418</v>
+        <v>96.93282000000001</v>
       </c>
     </row>
     <row r="190">
@@ -2256,7 +2256,7 @@
         </is>
       </c>
       <c r="B190">
-        <v>97.82699763697535</v>
+        <v>97.826998</v>
       </c>
     </row>
     <row r="191">
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="B191">
-        <v>97.34630067793888</v>
+        <v>97.346301</v>
       </c>
     </row>
     <row r="192">
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="B192">
-        <v>98.22891390146431</v>
+        <v>98.228914</v>
       </c>
     </row>
     <row r="193">
@@ -2286,7 +2286,7 @@
         </is>
       </c>
       <c r="B193">
-        <v>97.29132780003199</v>
+        <v>97.29132799999999</v>
       </c>
     </row>
     <row r="194">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="B194">
-        <v>98.09497166976851</v>
+        <v>98.094972</v>
       </c>
     </row>
     <row r="195">
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="B195">
-        <v>98.89364018088729</v>
+        <v>98.89364</v>
       </c>
     </row>
     <row r="196">
@@ -2316,7 +2316,7 @@
         </is>
       </c>
       <c r="B196">
-        <v>99.38904587584106</v>
+        <v>99.38904599999999</v>
       </c>
     </row>
     <row r="197">
@@ -2326,7 +2326,7 @@
         </is>
       </c>
       <c r="B197">
-        <v>98.71421868007513</v>
+        <v>98.714219</v>
       </c>
     </row>
     <row r="198">
@@ -2336,7 +2336,7 @@
         </is>
       </c>
       <c r="B198">
-        <v>97.44592702049326</v>
+        <v>97.445927</v>
       </c>
     </row>
     <row r="199">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="B199">
-        <v>98.11655717742924</v>
+        <v>98.116557</v>
       </c>
     </row>
     <row r="200">
@@ -2356,7 +2356,7 @@
         </is>
       </c>
       <c r="B200">
-        <v>97.62466356839711</v>
+        <v>97.624664</v>
       </c>
     </row>
     <row r="201">
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="B201">
-        <v>97.11754505587763</v>
+        <v>97.11754500000001</v>
       </c>
     </row>
     <row r="202">
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="B202">
-        <v>97.0646029036308</v>
+        <v>97.06460300000001</v>
       </c>
     </row>
     <row r="203">
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="B203">
-        <v>98.18573889160939</v>
+        <v>98.185739</v>
       </c>
     </row>
     <row r="204">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B204">
-        <v>99.31589983269308</v>
+        <v>99.3159</v>
       </c>
     </row>
     <row r="205">
@@ -2406,7 +2406,7 @@
         </is>
       </c>
       <c r="B205">
-        <v>100.388361914208</v>
+        <v>100.388362</v>
       </c>
     </row>
     <row r="206">
@@ -2416,7 +2416,7 @@
         </is>
       </c>
       <c r="B206">
-        <v>99.40786911481975</v>
+        <v>99.40786900000001</v>
       </c>
     </row>
     <row r="207">
@@ -2426,7 +2426,7 @@
         </is>
       </c>
       <c r="B207">
-        <v>99.88268518818427</v>
+        <v>99.882685</v>
       </c>
     </row>
     <row r="208">
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="B208">
-        <v>100.2813176583175</v>
+        <v>100.281318</v>
       </c>
     </row>
     <row r="209">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="B209">
-        <v>98.36204222388842</v>
+        <v>98.362042</v>
       </c>
     </row>
     <row r="210">
@@ -2456,7 +2456,7 @@
         </is>
       </c>
       <c r="B210">
-        <v>95.78736966878127</v>
+        <v>95.78737</v>
       </c>
     </row>
     <row r="211">
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="B211">
-        <v>96.7204920825876</v>
+        <v>96.72049199999999</v>
       </c>
     </row>
     <row r="212">
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="B212">
-        <v>97.00637773895107</v>
+        <v>97.006378</v>
       </c>
     </row>
     <row r="213">
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="B213">
-        <v>97.25358780414867</v>
+        <v>97.25358799999999</v>
       </c>
     </row>
     <row r="214">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="B214">
-        <v>96.62115279035885</v>
+        <v>96.62115300000001</v>
       </c>
     </row>
     <row r="215">
@@ -2506,7 +2506,7 @@
         </is>
       </c>
       <c r="B215">
-        <v>96.50757150714482</v>
+        <v>96.507572</v>
       </c>
     </row>
     <row r="216">
@@ -2516,7 +2516,7 @@
         </is>
       </c>
       <c r="B216">
-        <v>95.41788452007772</v>
+        <v>95.417885</v>
       </c>
     </row>
     <row r="217">
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="B217">
-        <v>95.30694750103336</v>
+        <v>95.30694800000001</v>
       </c>
     </row>
     <row r="218">
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="B218">
-        <v>96.69376159547166</v>
+        <v>96.69376200000001</v>
       </c>
     </row>
     <row r="219">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="B219">
-        <v>95.67622416092111</v>
+        <v>95.676224</v>
       </c>
     </row>
     <row r="220">
@@ -2556,7 +2556,7 @@
         </is>
       </c>
       <c r="B220">
-        <v>95.89892724074662</v>
+        <v>95.898927</v>
       </c>
     </row>
     <row r="221">
@@ -2566,7 +2566,7 @@
         </is>
       </c>
       <c r="B221">
-        <v>96.08420095103037</v>
+        <v>96.08420099999999</v>
       </c>
     </row>
     <row r="222">
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="B222">
-        <v>95.85003720433708</v>
+        <v>95.850037</v>
       </c>
     </row>
     <row r="223">
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="B223">
-        <v>96.60031731950292</v>
+        <v>96.600317</v>
       </c>
     </row>
     <row r="224">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="B224">
-        <v>94.54253509427672</v>
+        <v>94.542535</v>
       </c>
     </row>
     <row r="225">
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="B225">
-        <v>96.03515448620243</v>
+        <v>96.03515400000001</v>
       </c>
     </row>
     <row r="226">
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="B226">
-        <v>96.30490108459249</v>
+        <v>96.304901</v>
       </c>
     </row>
     <row r="227">
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="B227">
-        <v>95.65175740254159</v>
+        <v>95.651757</v>
       </c>
     </row>
     <row r="228">
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="B228">
-        <v>95.56834778996793</v>
+        <v>95.568348</v>
       </c>
     </row>
     <row r="229">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="B229">
-        <v>94.38448475130336</v>
+        <v>94.384485</v>
       </c>
     </row>
     <row r="230">
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="B230">
-        <v>93.46065498298829</v>
+        <v>93.460655</v>
       </c>
     </row>
     <row r="231">
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="B231">
-        <v>92.8913760305783</v>
+        <v>92.89137599999999</v>
       </c>
     </row>
     <row r="232">
@@ -2676,7 +2676,7 @@
         </is>
       </c>
       <c r="B232">
-        <v>91.86516431323578</v>
+        <v>91.86516399999999</v>
       </c>
     </row>
     <row r="233">
@@ -2686,7 +2686,7 @@
         </is>
       </c>
       <c r="B233">
-        <v>91.13084875553227</v>
+        <v>91.130849</v>
       </c>
     </row>
     <row r="234">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="B234">
-        <v>92.36541954655065</v>
+        <v>92.36542</v>
       </c>
     </row>
     <row r="235">
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="B235">
-        <v>91.94620109257087</v>
+        <v>91.946201</v>
       </c>
     </row>
     <row r="236">
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="B236">
-        <v>91.65058154529582</v>
+        <v>91.650582</v>
       </c>
     </row>
     <row r="237">
@@ -2726,7 +2726,7 @@
         </is>
       </c>
       <c r="B237">
-        <v>92.82411136461978</v>
+        <v>92.824111</v>
       </c>
     </row>
     <row r="238">
@@ -2736,7 +2736,7 @@
         </is>
       </c>
       <c r="B238">
-        <v>91.37218735138171</v>
+        <v>91.372187</v>
       </c>
     </row>
     <row r="239">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="B239">
-        <v>90.06770408510016</v>
+        <v>90.06770400000001</v>
       </c>
     </row>
     <row r="240">
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="B240">
-        <v>90.34674811692948</v>
+        <v>90.34674800000001</v>
       </c>
     </row>
     <row r="241">
@@ -2766,7 +2766,7 @@
         </is>
       </c>
       <c r="B241">
-        <v>89.32647299987683</v>
+        <v>89.32647299999999</v>
       </c>
     </row>
     <row r="242">
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="B242">
-        <v>89.72435774116147</v>
+        <v>89.724358</v>
       </c>
     </row>
     <row r="243">
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="B243">
-        <v>90.01073745853333</v>
+        <v>90.01073700000001</v>
       </c>
     </row>
     <row r="244">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="B244">
-        <v>90.12607082044896</v>
+        <v>90.126071</v>
       </c>
     </row>
     <row r="245">
@@ -2806,7 +2806,7 @@
         </is>
       </c>
       <c r="B245">
-        <v>90.19432599743983</v>
+        <v>90.194326</v>
       </c>
     </row>
     <row r="246">
@@ -2816,7 +2816,7 @@
         </is>
       </c>
       <c r="B246">
-        <v>90.77398340137125</v>
+        <v>90.773983</v>
       </c>
     </row>
     <row r="247">
@@ -2826,7 +2826,7 @@
         </is>
       </c>
       <c r="B247">
-        <v>91.48158708221969</v>
+        <v>91.481587</v>
       </c>
     </row>
     <row r="248">
@@ -2836,7 +2836,7 @@
         </is>
       </c>
       <c r="B248">
-        <v>91.71655962358983</v>
+        <v>91.71656</v>
       </c>
     </row>
     <row r="249">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="B249">
-        <v>90.8850032407866</v>
+        <v>90.885003</v>
       </c>
     </row>
     <row r="250">
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="B250">
-        <v>90.45639665341884</v>
+        <v>90.456397</v>
       </c>
     </row>
     <row r="251">
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="B251">
-        <v>90.49086647684209</v>
+        <v>90.490866</v>
       </c>
     </row>
     <row r="252">
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="B252">
-        <v>91.28033951834404</v>
+        <v>91.28034</v>
       </c>
     </row>
     <row r="253">
@@ -2886,7 +2886,7 @@
         </is>
       </c>
       <c r="B253">
-        <v>89.66521487302479</v>
+        <v>89.665215</v>
       </c>
     </row>
     <row r="254">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="B254">
-        <v>90.04638299977995</v>
+        <v>90.04638300000001</v>
       </c>
     </row>
     <row r="255">
@@ -2906,7 +2906,7 @@
         </is>
       </c>
       <c r="B255">
-        <v>89.85597876655783</v>
+        <v>89.855979</v>
       </c>
     </row>
     <row r="256">
@@ -2916,7 +2916,7 @@
         </is>
       </c>
       <c r="B256">
-        <v>89.78343970036684</v>
+        <v>89.78344</v>
       </c>
     </row>
     <row r="257">
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="B257">
-        <v>89.56201761276461</v>
+        <v>89.56201799999999</v>
       </c>
     </row>
     <row r="258">
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="B258">
-        <v>89.82436906898384</v>
+        <v>89.824369</v>
       </c>
     </row>
     <row r="259">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="B259">
-        <v>89.95850986412208</v>
+        <v>89.95851</v>
       </c>
     </row>
     <row r="260">
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="B260">
-        <v>89.39719326642093</v>
+        <v>89.397193</v>
       </c>
     </row>
     <row r="261">
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="B261">
-        <v>89.5305638139296</v>
+        <v>89.530564</v>
       </c>
     </row>
     <row r="262">
@@ -2976,7 +2976,7 @@
         </is>
       </c>
       <c r="B262">
-        <v>89.75741433805813</v>
+        <v>89.757414</v>
       </c>
     </row>
     <row r="263">
@@ -2986,7 +2986,7 @@
         </is>
       </c>
       <c r="B263">
-        <v>89.4087686136412</v>
+        <v>89.40876900000001</v>
       </c>
     </row>
     <row r="264">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="B264">
-        <v>89.15250169665153</v>
+        <v>89.152502</v>
       </c>
     </row>
     <row r="265">
@@ -3006,7 +3006,7 @@
         </is>
       </c>
       <c r="B265">
-        <v>89.34259059995739</v>
+        <v>89.342591</v>
       </c>
     </row>
     <row r="266">
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="B266">
-        <v>88.56213173448064</v>
+        <v>88.56213200000001</v>
       </c>
     </row>
     <row r="267">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B267">
-        <v>88.39201671945588</v>
+        <v>88.392017</v>
       </c>
     </row>
     <row r="268">
@@ -3036,7 +3036,7 @@
         </is>
       </c>
       <c r="B268">
-        <v>88.93709854922491</v>
+        <v>88.937099</v>
       </c>
     </row>
     <row r="269">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="B269">
-        <v>89.13264957473234</v>
+        <v>89.13265</v>
       </c>
     </row>
     <row r="270">
@@ -3056,7 +3056,7 @@
         </is>
       </c>
       <c r="B270">
-        <v>88.02738597354831</v>
+        <v>88.02738600000001</v>
       </c>
     </row>
     <row r="271">
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="B271">
-        <v>88.83225489815213</v>
+        <v>88.832255</v>
       </c>
     </row>
     <row r="272">
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="B272">
-        <v>90.60518949381222</v>
+        <v>90.605189</v>
       </c>
     </row>
     <row r="273">
@@ -3086,7 +3086,7 @@
         </is>
       </c>
       <c r="B273">
-        <v>90.89996539931361</v>
+        <v>90.89996499999999</v>
       </c>
     </row>
     <row r="274">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="B274">
-        <v>89.08527120192331</v>
+        <v>89.08527100000001</v>
       </c>
     </row>
     <row r="275">
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="B275">
-        <v>87.69031818212427</v>
+        <v>87.690318</v>
       </c>
     </row>
     <row r="276">
@@ -3116,7 +3116,7 @@
         </is>
       </c>
       <c r="B276">
-        <v>89.5705698661482</v>
+        <v>89.57057</v>
       </c>
     </row>
     <row r="277">
@@ -3126,7 +3126,7 @@
         </is>
       </c>
       <c r="B277">
-        <v>89.87726668122221</v>
+        <v>89.877267</v>
       </c>
     </row>
     <row r="278">
@@ -3136,7 +3136,7 @@
         </is>
       </c>
       <c r="B278">
-        <v>88.75402707652435</v>
+        <v>88.75402699999999</v>
       </c>
     </row>
     <row r="279">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="B279">
-        <v>88.4559953376715</v>
+        <v>88.455995</v>
       </c>
     </row>
     <row r="280">
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="B280">
-        <v>88.95742429581229</v>
+        <v>88.957424</v>
       </c>
     </row>
     <row r="281">
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="B281">
-        <v>88.42963539002116</v>
+        <v>88.429635</v>
       </c>
     </row>
     <row r="282">
@@ -3176,7 +3176,7 @@
         </is>
       </c>
       <c r="B282">
-        <v>88.2230210527112</v>
+        <v>88.223021</v>
       </c>
     </row>
     <row r="283">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B283">
-        <v>89.20914602042134</v>
+        <v>89.209146</v>
       </c>
     </row>
     <row r="284">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="B284">
-        <v>88.52622934863523</v>
+        <v>88.526229</v>
       </c>
     </row>
     <row r="285">
@@ -3206,7 +3206,7 @@
         </is>
       </c>
       <c r="B285">
-        <v>88.86509322880445</v>
+        <v>88.865093</v>
       </c>
     </row>
     <row r="286">
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="B286">
-        <v>90.11762788038659</v>
+        <v>90.117628</v>
       </c>
     </row>
     <row r="287">
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="B287">
-        <v>90.63309566502113</v>
+        <v>90.63309599999999</v>
       </c>
     </row>
     <row r="288">
@@ -3236,7 +3236,7 @@
         </is>
       </c>
       <c r="B288">
-        <v>90.66383822230806</v>
+        <v>90.663838</v>
       </c>
     </row>
     <row r="289">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="B289">
-        <v>89.83789019346324</v>
+        <v>89.83789</v>
       </c>
     </row>
     <row r="290">
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="B290">
-        <v>89.62459719280496</v>
+        <v>89.62459699999999</v>
       </c>
     </row>
     <row r="291">
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="B291">
-        <v>91.51307785705342</v>
+        <v>91.51307799999999</v>
       </c>
     </row>
     <row r="292">
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="B292">
-        <v>91.33857086687989</v>
+        <v>91.338571</v>
       </c>
     </row>
     <row r="293">
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="B293">
-        <v>92.13841801469498</v>
+        <v>92.138418</v>
       </c>
     </row>
     <row r="294">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="B294">
-        <v>92.1142943118853</v>
+        <v>92.114294</v>
       </c>
     </row>
     <row r="295">
@@ -3306,7 +3306,7 @@
         </is>
       </c>
       <c r="B295">
-        <v>92.3318337190522</v>
+        <v>92.331834</v>
       </c>
     </row>
     <row r="296">
@@ -3316,7 +3316,7 @@
         </is>
       </c>
       <c r="B296">
-        <v>92.50866031129111</v>
+        <v>92.50866000000001</v>
       </c>
     </row>
     <row r="297">
@@ -3326,7 +3326,7 @@
         </is>
       </c>
       <c r="B297">
-        <v>92.61149908561853</v>
+        <v>92.61149899999999</v>
       </c>
     </row>
     <row r="298">
@@ -3336,7 +3336,7 @@
         </is>
       </c>
       <c r="B298">
-        <v>91.23575301098084</v>
+        <v>91.235753</v>
       </c>
     </row>
     <row r="299">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="B299">
-        <v>92.41282164565152</v>
+        <v>92.41282200000001</v>
       </c>
     </row>
     <row r="300">
@@ -3356,7 +3356,7 @@
         </is>
       </c>
       <c r="B300">
-        <v>92.36666421922601</v>
+        <v>92.366664</v>
       </c>
     </row>
     <row r="301">
@@ -3366,7 +3366,7 @@
         </is>
       </c>
       <c r="B301">
-        <v>93.26928253660273</v>
+        <v>93.269283</v>
       </c>
     </row>
     <row r="302">
@@ -3376,7 +3376,7 @@
         </is>
       </c>
       <c r="B302">
-        <v>92.4912769466127</v>
+        <v>92.491277</v>
       </c>
     </row>
     <row r="303">
@@ -3386,7 +3386,7 @@
         </is>
       </c>
       <c r="B303">
-        <v>90.7187456034832</v>
+        <v>90.718746</v>
       </c>
     </row>
     <row r="304">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="B304">
-        <v>90.35631293230398</v>
+        <v>90.356313</v>
       </c>
     </row>
     <row r="305">
@@ -3406,7 +3406,7 @@
         </is>
       </c>
       <c r="B305">
-        <v>90.36774315396556</v>
+        <v>90.367743</v>
       </c>
     </row>
     <row r="306">
@@ -3416,7 +3416,7 @@
         </is>
       </c>
       <c r="B306">
-        <v>90.4947050093506</v>
+        <v>90.494705</v>
       </c>
     </row>
     <row r="307">
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="B307">
-        <v>90.2466189404205</v>
+        <v>90.246619</v>
       </c>
     </row>
     <row r="308">
@@ -3436,7 +3436,7 @@
         </is>
       </c>
       <c r="B308">
-        <v>89.40746512762732</v>
+        <v>89.407465</v>
       </c>
     </row>
     <row r="309">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="B309">
-        <v>88.78549136858429</v>
+        <v>88.78549099999999</v>
       </c>
     </row>
     <row r="310">
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="B310">
-        <v>88.71224843675026</v>
+        <v>88.712248</v>
       </c>
     </row>
     <row r="311">
@@ -3466,7 +3466,7 @@
         </is>
       </c>
       <c r="B311">
-        <v>89.273142341547</v>
+        <v>89.27314200000001</v>
       </c>
     </row>
     <row r="312">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="B312">
-        <v>89.8411324057397</v>
+        <v>89.841132</v>
       </c>
     </row>
     <row r="313">
@@ -3486,7 +3486,7 @@
         </is>
       </c>
       <c r="B313">
-        <v>88.70509521683522</v>
+        <v>88.705095</v>
       </c>
     </row>
     <row r="314">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="B314">
-        <v>89.22096832444905</v>
+        <v>89.220968</v>
       </c>
     </row>
     <row r="315">
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="B315">
-        <v>89.01049226640015</v>
+        <v>89.010492</v>
       </c>
     </row>
     <row r="316">
@@ -3516,7 +3516,7 @@
         </is>
       </c>
       <c r="B316">
-        <v>89.60926446927324</v>
+        <v>89.609264</v>
       </c>
     </row>
     <row r="317">
@@ -3526,7 +3526,7 @@
         </is>
       </c>
       <c r="B317">
-        <v>89.15990887766149</v>
+        <v>89.159909</v>
       </c>
     </row>
     <row r="318">
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="B318">
-        <v>88.34988626799375</v>
+        <v>88.349886</v>
       </c>
     </row>
     <row r="319">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="B319">
-        <v>89.3871951422678</v>
+        <v>89.38719500000001</v>
       </c>
     </row>
     <row r="320">
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="B320">
-        <v>90.03012956326496</v>
+        <v>90.03013</v>
       </c>
     </row>
     <row r="321">
@@ -3566,7 +3566,7 @@
         </is>
       </c>
       <c r="B321">
-        <v>89.11453059049499</v>
+        <v>89.114531</v>
       </c>
     </row>
     <row r="322">
@@ -3576,7 +3576,7 @@
         </is>
       </c>
       <c r="B322">
-        <v>91.01355374188557</v>
+        <v>91.013554</v>
       </c>
     </row>
     <row r="323">
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="B323">
-        <v>91.85725520672234</v>
+        <v>91.85725499999999</v>
       </c>
     </row>
     <row r="324">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="B324">
-        <v>91.45430484106643</v>
+        <v>91.45430500000001</v>
       </c>
     </row>
     <row r="325">
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="B325">
-        <v>93.12564947214914</v>
+        <v>93.125649</v>
       </c>
     </row>
     <row r="326">
@@ -3616,7 +3616,7 @@
         </is>
       </c>
       <c r="B326">
-        <v>92.47208714100586</v>
+        <v>92.472087</v>
       </c>
     </row>
     <row r="327">
@@ -3626,7 +3626,7 @@
         </is>
       </c>
       <c r="B327">
-        <v>92.64658676707418</v>
+        <v>92.646587</v>
       </c>
     </row>
     <row r="328">
@@ -3636,7 +3636,7 @@
         </is>
       </c>
       <c r="B328">
-        <v>91.67881076689224</v>
+        <v>91.678811</v>
       </c>
     </row>
     <row r="329">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="B329">
-        <v>91.3104076607961</v>
+        <v>91.310408</v>
       </c>
     </row>
     <row r="330">
@@ -3656,7 +3656,7 @@
         </is>
       </c>
       <c r="B330">
-        <v>91.61771099471513</v>
+        <v>91.617711</v>
       </c>
     </row>
     <row r="331">
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="B331">
-        <v>91.20650753489399</v>
+        <v>91.206508</v>
       </c>
     </row>
     <row r="332">
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="B332">
-        <v>90.54404314298407</v>
+        <v>90.544043</v>
       </c>
     </row>
     <row r="333">
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="B333">
-        <v>92.40178336861769</v>
+        <v>92.40178299999999</v>
       </c>
     </row>
     <row r="334">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="B334">
-        <v>91.71728163262573</v>
+        <v>91.717282</v>
       </c>
     </row>
     <row r="335">
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B335">
-        <v>92.82472481019524</v>
+        <v>92.824725</v>
       </c>
     </row>
     <row r="336">
@@ -3716,7 +3716,7 @@
         </is>
       </c>
       <c r="B336">
-        <v>90.4672567099508</v>
+        <v>90.467257</v>
       </c>
     </row>
     <row r="337">
@@ -3726,7 +3726,7 @@
         </is>
       </c>
       <c r="B337">
-        <v>91.97038929387249</v>
+        <v>91.970389</v>
       </c>
     </row>
     <row r="338">
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="B338">
-        <v>90.58139432633438</v>
+        <v>90.581394</v>
       </c>
     </row>
     <row r="339">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="B339">
-        <v>90.24236754551734</v>
+        <v>90.242368</v>
       </c>
     </row>
     <row r="340">
@@ -3756,7 +3756,7 @@
         </is>
       </c>
       <c r="B340">
-        <v>90.38067469244226</v>
+        <v>90.380675</v>
       </c>
     </row>
     <row r="341">
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="B341">
-        <v>90.23318650017747</v>
+        <v>90.233187</v>
       </c>
     </row>
     <row r="342">
@@ -3776,7 +3776,7 @@
         </is>
       </c>
       <c r="B342">
-        <v>90.83631686904266</v>
+        <v>90.83631699999999</v>
       </c>
     </row>
     <row r="343">
@@ -3786,7 +3786,7 @@
         </is>
       </c>
       <c r="B343">
-        <v>90.9859434016706</v>
+        <v>90.98594300000001</v>
       </c>
     </row>
     <row r="344">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="B344">
-        <v>90.88667042167296</v>
+        <v>90.88667</v>
       </c>
     </row>
     <row r="345">
@@ -3806,7 +3806,7 @@
         </is>
       </c>
       <c r="B345">
-        <v>91.64499887729998</v>
+        <v>91.644999</v>
       </c>
     </row>
     <row r="346">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B346">
-        <v>90.08635578983302</v>
+        <v>90.08635599999999</v>
       </c>
     </row>
     <row r="347">
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="B347">
-        <v>89.4617619533351</v>
+        <v>89.46176199999999</v>
       </c>
     </row>
     <row r="348">
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="B348">
-        <v>88.81043045155404</v>
+        <v>88.81043</v>
       </c>
     </row>
     <row r="349">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="B349">
-        <v>89.29841330795168</v>
+        <v>89.298413</v>
       </c>
     </row>
     <row r="350">
@@ -3856,7 +3856,7 @@
         </is>
       </c>
       <c r="B350">
-        <v>88.5764765895582</v>
+        <v>88.576477</v>
       </c>
     </row>
     <row r="351">
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="B351">
-        <v>90.46282860599334</v>
+        <v>90.462829</v>
       </c>
     </row>
     <row r="352">
@@ -3876,7 +3876,7 @@
         </is>
       </c>
       <c r="B352">
-        <v>90.56147128124235</v>
+        <v>90.561471</v>
       </c>
     </row>
     <row r="353">
@@ -3886,7 +3886,7 @@
         </is>
       </c>
       <c r="B353">
-        <v>90.01423820704758</v>
+        <v>90.01423800000001</v>
       </c>
     </row>
     <row r="354">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="B354">
-        <v>89.75438821607014</v>
+        <v>89.75438800000001</v>
       </c>
     </row>
     <row r="355">
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="B355">
-        <v>91.23909407349193</v>
+        <v>91.23909399999999</v>
       </c>
     </row>
     <row r="356">
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="B356">
-        <v>92.33662905376818</v>
+        <v>92.336629</v>
       </c>
     </row>
     <row r="357">
@@ -3926,7 +3926,7 @@
         </is>
       </c>
       <c r="B357">
-        <v>92.31595859349132</v>
+        <v>92.31595900000001</v>
       </c>
     </row>
     <row r="358">
@@ -3936,7 +3936,7 @@
         </is>
       </c>
       <c r="B358">
-        <v>91.16368834687401</v>
+        <v>91.16368799999999</v>
       </c>
     </row>
     <row r="359">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="B359">
-        <v>90.23150732705791</v>
+        <v>90.23150699999999</v>
       </c>
     </row>
     <row r="360">
@@ -3956,7 +3956,7 @@
         </is>
       </c>
       <c r="B360">
-        <v>90.23520827273161</v>
+        <v>90.235208</v>
       </c>
     </row>
     <row r="361">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B361">
-        <v>90.6778532653282</v>
+        <v>90.677853</v>
       </c>
     </row>
     <row r="362">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B362">
-        <v>90.44961721454398</v>
+        <v>90.449617</v>
       </c>
     </row>
     <row r="363">
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="B363">
-        <v>91.124970439138</v>
+        <v>91.12497</v>
       </c>
     </row>
     <row r="364">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="B364">
-        <v>90.33841500649262</v>
+        <v>90.338415</v>
       </c>
     </row>
     <row r="365">
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B365">
-        <v>89.94382728734884</v>
+        <v>89.943827</v>
       </c>
     </row>
     <row r="366">
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="B366">
-        <v>91.10433197805634</v>
+        <v>91.104332</v>
       </c>
     </row>
     <row r="367">
@@ -4026,7 +4026,7 @@
         </is>
       </c>
       <c r="B367">
-        <v>91.22632863574493</v>
+        <v>91.22632900000001</v>
       </c>
     </row>
     <row r="368">
@@ -4036,7 +4036,7 @@
         </is>
       </c>
       <c r="B368">
-        <v>90.18249157880886</v>
+        <v>90.182492</v>
       </c>
     </row>
     <row r="369">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="B369">
-        <v>91.04334986165371</v>
+        <v>91.04335</v>
       </c>
     </row>
     <row r="370">
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="B370">
-        <v>91.23708752600737</v>
+        <v>91.237088</v>
       </c>
     </row>
     <row r="371">
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B371">
-        <v>90.63794691038252</v>
+        <v>90.637947</v>
       </c>
     </row>
     <row r="372">
@@ -4076,7 +4076,7 @@
         </is>
       </c>
       <c r="B372">
-        <v>90.74090165089746</v>
+        <v>90.74090200000001</v>
       </c>
     </row>
     <row r="373">
@@ -4086,7 +4086,7 @@
         </is>
       </c>
       <c r="B373">
-        <v>91.37152031056806</v>
+        <v>91.37152</v>
       </c>
     </row>
     <row r="374">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="B374">
-        <v>91.13919255187744</v>
+        <v>91.13919300000001</v>
       </c>
     </row>
     <row r="375">
@@ -4106,7 +4106,7 @@
         </is>
       </c>
       <c r="B375">
-        <v>90.96242613524873</v>
+        <v>90.96242599999999</v>
       </c>
     </row>
     <row r="376">
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="B376">
-        <v>90.62359266153209</v>
+        <v>90.623593</v>
       </c>
     </row>
     <row r="377">
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="B377">
-        <v>90.36115868057598</v>
+        <v>90.361159</v>
       </c>
     </row>
     <row r="378">
@@ -4136,7 +4136,7 @@
         </is>
       </c>
       <c r="B378">
-        <v>90.83176736228786</v>
+        <v>90.831767</v>
       </c>
     </row>
     <row r="379">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="B379">
-        <v>92.04326755487142</v>
+        <v>92.043268</v>
       </c>
     </row>
     <row r="380">
@@ -4156,7 +4156,7 @@
         </is>
       </c>
       <c r="B380">
-        <v>89.87746283614956</v>
+        <v>89.87746300000001</v>
       </c>
     </row>
     <row r="381">
@@ -4166,7 +4166,7 @@
         </is>
       </c>
       <c r="B381">
-        <v>89.44105578425653</v>
+        <v>89.441056</v>
       </c>
     </row>
     <row r="382">
@@ -4176,7 +4176,7 @@
         </is>
       </c>
       <c r="B382">
-        <v>89.82862134861253</v>
+        <v>89.828621</v>
       </c>
     </row>
     <row r="383">
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="B383">
-        <v>90.04762328311131</v>
+        <v>90.047623</v>
       </c>
     </row>
     <row r="384">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="B384">
-        <v>90.70022772801386</v>
+        <v>90.700228</v>
       </c>
     </row>
     <row r="385">
@@ -4206,7 +4206,7 @@
         </is>
       </c>
       <c r="B385">
-        <v>91.47177217008948</v>
+        <v>91.471772</v>
       </c>
     </row>
     <row r="386">
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="B386">
-        <v>92.12412514609578</v>
+        <v>92.12412500000001</v>
       </c>
     </row>
     <row r="387">
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="B387">
-        <v>92.86796901940345</v>
+        <v>92.867969</v>
       </c>
     </row>
     <row r="388">
@@ -4236,7 +4236,7 @@
         </is>
       </c>
       <c r="B388">
-        <v>92.41019462239917</v>
+        <v>92.410195</v>
       </c>
     </row>
     <row r="389">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="B389">
-        <v>91.59744894583471</v>
+        <v>91.597449</v>
       </c>
     </row>
     <row r="390">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="B390">
-        <v>91.73356161883559</v>
+        <v>91.73356200000001</v>
       </c>
     </row>
     <row r="391">
@@ -4266,7 +4266,7 @@
         </is>
       </c>
       <c r="B391">
-        <v>90.50698880890491</v>
+        <v>90.506989</v>
       </c>
     </row>
     <row r="392">
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="B392">
-        <v>91.28224329215874</v>
+        <v>91.28224299999999</v>
       </c>
     </row>
     <row r="393">
@@ -4286,7 +4286,7 @@
         </is>
       </c>
       <c r="B393">
-        <v>91.17361858836624</v>
+        <v>91.173619</v>
       </c>
     </row>
     <row r="394">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="B394">
-        <v>90.70027613469631</v>
+        <v>90.700276</v>
       </c>
     </row>
     <row r="395">
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B395">
-        <v>91.17391838252438</v>
+        <v>91.173918</v>
       </c>
     </row>
     <row r="396">
@@ -4316,7 +4316,7 @@
         </is>
       </c>
       <c r="B396">
-        <v>91.07757614851226</v>
+        <v>91.07757599999999</v>
       </c>
     </row>
     <row r="397">
@@ -4326,7 +4326,7 @@
         </is>
       </c>
       <c r="B397">
-        <v>91.29767764695244</v>
+        <v>91.297678</v>
       </c>
     </row>
     <row r="398">
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="B398">
-        <v>91.60588713362856</v>
+        <v>91.605887</v>
       </c>
     </row>
     <row r="399">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="B399">
-        <v>92.09433914824594</v>
+        <v>92.09433900000001</v>
       </c>
     </row>
     <row r="400">
@@ -4356,7 +4356,7 @@
         </is>
       </c>
       <c r="B400">
-        <v>92.69493967080949</v>
+        <v>92.69494</v>
       </c>
     </row>
     <row r="401">
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="B401">
-        <v>91.78361973751733</v>
+        <v>91.78362</v>
       </c>
     </row>
     <row r="402">
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="B402">
-        <v>93.29190397775272</v>
+        <v>93.291904</v>
       </c>
     </row>
     <row r="403">
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="B403">
-        <v>94.82078776384566</v>
+        <v>94.82078799999999</v>
       </c>
     </row>
     <row r="404">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="B404">
-        <v>96.05256722384468</v>
+        <v>96.052567</v>
       </c>
     </row>
     <row r="405">
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="B405">
-        <v>98.16412535253973</v>
+        <v>98.164125</v>
       </c>
     </row>
     <row r="406">
@@ -4416,7 +4416,7 @@
         </is>
       </c>
       <c r="B406">
-        <v>98.41560554681683</v>
+        <v>98.415606</v>
       </c>
     </row>
     <row r="407">
@@ -4426,7 +4426,7 @@
         </is>
       </c>
       <c r="B407">
-        <v>98.04389036397438</v>
+        <v>98.04389</v>
       </c>
     </row>
     <row r="408">
@@ -4436,7 +4436,7 @@
         </is>
       </c>
       <c r="B408">
-        <v>98.51656372002182</v>
+        <v>98.516564</v>
       </c>
     </row>
     <row r="409">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="B409">
-        <v>99.2971413423659</v>
+        <v>99.297141</v>
       </c>
     </row>
     <row r="410">
@@ -4456,7 +4456,7 @@
         </is>
       </c>
       <c r="B410">
-        <v>99.78560591941003</v>
+        <v>99.785606</v>
       </c>
     </row>
     <row r="411">
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="B411">
-        <v>100.4562089633983</v>
+        <v>100.456209</v>
       </c>
     </row>
     <row r="412">
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="B412">
-        <v>100.9150455475544</v>
+        <v>100.915046</v>
       </c>
     </row>
     <row r="413">
@@ -4486,7 +4486,7 @@
         </is>
       </c>
       <c r="B413">
-        <v>100.4918832396768</v>
+        <v>100.491883</v>
       </c>
     </row>
     <row r="414">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="B414">
-        <v>101.2682723066055</v>
+        <v>101.268272</v>
       </c>
     </row>
     <row r="415">
@@ -4506,7 +4506,7 @@
         </is>
       </c>
       <c r="B415">
-        <v>101.1706271103281</v>
+        <v>101.170627</v>
       </c>
     </row>
     <row r="416">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="B416">
-        <v>100.901478778087</v>
+        <v>100.901479</v>
       </c>
     </row>
     <row r="417">
@@ -4526,7 +4526,7 @@
         </is>
       </c>
       <c r="B417">
-        <v>102.3856105898836</v>
+        <v>102.385611</v>
       </c>
     </row>
     <row r="418">
@@ -4536,7 +4536,7 @@
         </is>
       </c>
       <c r="B418">
-        <v>103.0678975462646</v>
+        <v>103.067898</v>
       </c>
     </row>
     <row r="419">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="B419">
-        <v>101.6831294210806</v>
+        <v>101.683129</v>
       </c>
     </row>
     <row r="420">
@@ -4556,7 +4556,7 @@
         </is>
       </c>
       <c r="B420">
-        <v>100.081311154357</v>
+        <v>100.081311</v>
       </c>
     </row>
     <row r="421">
@@ -4566,7 +4566,7 @@
         </is>
       </c>
       <c r="B421">
-        <v>101.5129949160656</v>
+        <v>101.512995</v>
       </c>
     </row>
     <row r="422">
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="B422">
-        <v>100.6356122876423</v>
+        <v>100.635612</v>
       </c>
     </row>
     <row r="423">
@@ -4586,7 +4586,7 @@
         </is>
       </c>
       <c r="B423">
-        <v>100.4861845480294</v>
+        <v>100.486185</v>
       </c>
     </row>
     <row r="424">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="B424">
-        <v>100.2638198267705</v>
+        <v>100.26382</v>
       </c>
     </row>
     <row r="425">
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="B425">
-        <v>99.36489594429875</v>
+        <v>99.364896</v>
       </c>
     </row>
     <row r="426">
@@ -4616,7 +4616,7 @@
         </is>
       </c>
       <c r="B426">
-        <v>99.2979180437863</v>
+        <v>99.297918</v>
       </c>
     </row>
     <row r="427">
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="B427">
-        <v>99.22775115469302</v>
+        <v>99.227751</v>
       </c>
     </row>
     <row r="428">
@@ -4636,7 +4636,7 @@
         </is>
       </c>
       <c r="B428">
-        <v>98.66471338561918</v>
+        <v>98.66471300000001</v>
       </c>
     </row>
     <row r="429">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="B429">
-        <v>98.239254095311</v>
+        <v>98.239254</v>
       </c>
     </row>
     <row r="430">
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="B430">
-        <v>98.54893712770613</v>
+        <v>98.548937</v>
       </c>
     </row>
     <row r="431">
@@ -4666,7 +4666,7 @@
         </is>
       </c>
       <c r="B431">
-        <v>98.94018383615291</v>
+        <v>98.940184</v>
       </c>
     </row>
     <row r="432">
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="B432">
-        <v>98.95122773206488</v>
+        <v>98.951228</v>
       </c>
     </row>
     <row r="433">
@@ -4686,7 +4686,7 @@
         </is>
       </c>
       <c r="B433">
-        <v>98.66815110658413</v>
+        <v>98.66815099999999</v>
       </c>
     </row>
     <row r="434">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="B434">
-        <v>97.87590798466773</v>
+        <v>97.875908</v>
       </c>
     </row>
     <row r="435">
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="B435">
-        <v>98.44045473005843</v>
+        <v>98.440455</v>
       </c>
     </row>
     <row r="436">
@@ -4716,7 +4716,7 @@
         </is>
       </c>
       <c r="B436">
-        <v>98.09093745811259</v>
+        <v>98.090937</v>
       </c>
     </row>
     <row r="437">
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="B437">
-        <v>96.31516974987456</v>
+        <v>96.31516999999999</v>
       </c>
     </row>
     <row r="438">
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="B438">
-        <v>96.32039923027764</v>
+        <v>96.32039899999999</v>
       </c>
     </row>
     <row r="439">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="B439">
-        <v>96.68486300846861</v>
+        <v>96.68486300000001</v>
       </c>
     </row>
     <row r="440">
@@ -4756,7 +4756,7 @@
         </is>
       </c>
       <c r="B440">
-        <v>96.51669001991917</v>
+        <v>96.51669</v>
       </c>
     </row>
     <row r="441">
@@ -4766,7 +4766,7 @@
         </is>
       </c>
       <c r="B441">
-        <v>94.70354095447374</v>
+        <v>94.703541</v>
       </c>
     </row>
     <row r="442">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="B442">
-        <v>94.71445535562249</v>
+        <v>94.714455</v>
       </c>
     </row>
     <row r="443">
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="B443">
-        <v>95.92838907043416</v>
+        <v>95.928389</v>
       </c>
     </row>
     <row r="444">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="B444">
-        <v>94.50919354398134</v>
+        <v>94.50919399999999</v>
       </c>
     </row>
     <row r="445">
@@ -4806,7 +4806,7 @@
         </is>
       </c>
       <c r="B445">
-        <v>94.12122128605844</v>
+        <v>94.12122100000001</v>
       </c>
     </row>
     <row r="446">
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="B446">
-        <v>94.045021426636</v>
+        <v>94.04502100000001</v>
       </c>
     </row>
     <row r="447">
@@ -4826,7 +4826,7 @@
         </is>
       </c>
       <c r="B447">
-        <v>93.67168576621143</v>
+        <v>93.67168599999999</v>
       </c>
     </row>
     <row r="448">
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="B448">
-        <v>93.39353543810385</v>
+        <v>93.393535</v>
       </c>
     </row>
     <row r="449">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="B449">
-        <v>93.49603460723073</v>
+        <v>93.49603500000001</v>
       </c>
     </row>
     <row r="450">
@@ -4856,7 +4856,7 @@
         </is>
       </c>
       <c r="B450">
-        <v>91.72695704123316</v>
+        <v>91.726957</v>
       </c>
     </row>
     <row r="451">
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="B451">
-        <v>91.59399500665225</v>
+        <v>91.59399500000001</v>
       </c>
     </row>
     <row r="452">
@@ -4876,7 +4876,7 @@
         </is>
       </c>
       <c r="B452">
-        <v>90.64614541306715</v>
+        <v>90.646145</v>
       </c>
     </row>
     <row r="453">
@@ -4886,7 +4886,7 @@
         </is>
       </c>
       <c r="B453">
-        <v>90.46697636514716</v>
+        <v>90.466976</v>
       </c>
     </row>
     <row r="454">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="B454">
-        <v>91.10751460013043</v>
+        <v>91.10751500000001</v>
       </c>
     </row>
     <row r="455">
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="B455">
-        <v>91.27032654705239</v>
+        <v>91.27032699999999</v>
       </c>
     </row>
     <row r="456">
@@ -4916,7 +4916,7 @@
         </is>
       </c>
       <c r="B456">
-        <v>91.92002862768057</v>
+        <v>91.920029</v>
       </c>
     </row>
     <row r="457">
@@ -4926,7 +4926,7 @@
         </is>
       </c>
       <c r="B457">
-        <v>91.79991967858219</v>
+        <v>91.79992</v>
       </c>
     </row>
     <row r="458">
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B458">
-        <v>90.59898390286553</v>
+        <v>90.598984</v>
       </c>
     </row>
     <row r="459">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="B459">
-        <v>91.09053292831562</v>
+        <v>91.09053299999999</v>
       </c>
     </row>
     <row r="460">
@@ -4956,7 +4956,7 @@
         </is>
       </c>
       <c r="B460">
-        <v>90.05127412557019</v>
+        <v>90.05127400000001</v>
       </c>
     </row>
     <row r="461">
@@ -4966,7 +4966,7 @@
         </is>
       </c>
       <c r="B461">
-        <v>89.4913059028236</v>
+        <v>89.49130599999999</v>
       </c>
     </row>
     <row r="462">
@@ -4976,7 +4976,7 @@
         </is>
       </c>
       <c r="B462">
-        <v>89.07726257270957</v>
+        <v>89.077263</v>
       </c>
     </row>
     <row r="463">
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="B463">
-        <v>89.02102026063066</v>
+        <v>89.02101999999999</v>
       </c>
     </row>
     <row r="464">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="B464">
-        <v>88.59310687556001</v>
+        <v>88.593107</v>
       </c>
     </row>
     <row r="465">
@@ -5006,7 +5006,7 @@
         </is>
       </c>
       <c r="B465">
-        <v>88.47321827263606</v>
+        <v>88.473218</v>
       </c>
     </row>
     <row r="466">
@@ -5016,7 +5016,7 @@
         </is>
       </c>
       <c r="B466">
-        <v>88.14128345648538</v>
+        <v>88.141283</v>
       </c>
     </row>
     <row r="467">
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="B467">
-        <v>88.42965835968229</v>
+        <v>88.429658</v>
       </c>
     </row>
     <row r="468">
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="B468">
-        <v>88.80795685082342</v>
+        <v>88.807957</v>
       </c>
     </row>
     <row r="469">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="B469">
-        <v>89.91695185344317</v>
+        <v>89.91695199999999</v>
       </c>
     </row>
     <row r="470">
@@ -5056,7 +5056,7 @@
         </is>
       </c>
       <c r="B470">
-        <v>88.66949932053363</v>
+        <v>88.669499</v>
       </c>
     </row>
     <row r="471">
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="B471">
-        <v>90.42222702188798</v>
+        <v>90.42222700000001</v>
       </c>
     </row>
     <row r="472">
@@ -5076,7 +5076,7 @@
         </is>
       </c>
       <c r="B472">
-        <v>89.83139022176735</v>
+        <v>89.83139</v>
       </c>
     </row>
     <row r="473">
@@ -5086,7 +5086,7 @@
         </is>
       </c>
       <c r="B473">
-        <v>91.23986486812665</v>
+        <v>91.23986499999999</v>
       </c>
     </row>
     <row r="474">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="B474">
-        <v>91.5898118191613</v>
+        <v>91.58981199999999</v>
       </c>
     </row>
     <row r="475">
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="B475">
-        <v>92.42698374024255</v>
+        <v>92.426984</v>
       </c>
     </row>
     <row r="476">
@@ -5116,7 +5116,7 @@
         </is>
       </c>
       <c r="B476">
-        <v>91.11606900025396</v>
+        <v>91.116069</v>
       </c>
     </row>
     <row r="477">
@@ -5126,7 +5126,7 @@
         </is>
       </c>
       <c r="B477">
-        <v>90.45865654176681</v>
+        <v>90.458657</v>
       </c>
     </row>
     <row r="478">
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="B478">
-        <v>90.95188385933827</v>
+        <v>90.95188400000001</v>
       </c>
     </row>
     <row r="479">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="B479">
-        <v>92.73107428963267</v>
+        <v>92.73107400000001</v>
       </c>
     </row>
     <row r="480">
@@ -5156,7 +5156,7 @@
         </is>
       </c>
       <c r="B480">
-        <v>92.74279815848099</v>
+        <v>92.74279799999999</v>
       </c>
     </row>
     <row r="481">
@@ -5166,7 +5166,7 @@
         </is>
       </c>
       <c r="B481">
-        <v>92.81473734015267</v>
+        <v>92.81473699999999</v>
       </c>
     </row>
     <row r="482">
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="B482">
-        <v>93.81372239097936</v>
+        <v>93.813722</v>
       </c>
     </row>
     <row r="483">
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="B483">
-        <v>94.05989054522161</v>
+        <v>94.05989099999999</v>
       </c>
     </row>
     <row r="484">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="B484">
-        <v>94.54677971180239</v>
+        <v>94.54678</v>
       </c>
     </row>
     <row r="485">
@@ -5206,7 +5206,7 @@
         </is>
       </c>
       <c r="B485">
-        <v>94.63188328645276</v>
+        <v>94.631883</v>
       </c>
     </row>
     <row r="486">
@@ -5216,7 +5216,7 @@
         </is>
       </c>
       <c r="B486">
-        <v>93.63951540178465</v>
+        <v>93.639515</v>
       </c>
     </row>
     <row r="487">
@@ -5226,7 +5226,7 @@
         </is>
       </c>
       <c r="B487">
-        <v>93.24357499375793</v>
+        <v>93.24357500000001</v>
       </c>
     </row>
     <row r="488">
@@ -5236,7 +5236,7 @@
         </is>
       </c>
       <c r="B488">
-        <v>92.91222602595745</v>
+        <v>92.912226</v>
       </c>
     </row>
     <row r="489">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="B489">
-        <v>92.476124532752</v>
+        <v>92.476125</v>
       </c>
     </row>
     <row r="490">
@@ -5256,7 +5256,7 @@
         </is>
       </c>
       <c r="B490">
-        <v>93.15371921529756</v>
+        <v>93.153719</v>
       </c>
     </row>
     <row r="491">
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="B491">
-        <v>92.31436996762764</v>
+        <v>92.31437</v>
       </c>
     </row>
     <row r="492">
@@ -5276,7 +5276,7 @@
         </is>
       </c>
       <c r="B492">
-        <v>92.83418900320555</v>
+        <v>92.83418899999999</v>
       </c>
     </row>
     <row r="493">
@@ -5286,7 +5286,7 @@
         </is>
       </c>
       <c r="B493">
-        <v>92.05801121756568</v>
+        <v>92.05801099999999</v>
       </c>
     </row>
     <row r="494">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="B494">
-        <v>92.14772450403375</v>
+        <v>92.14772499999999</v>
       </c>
     </row>
     <row r="495">
@@ -5306,7 +5306,7 @@
         </is>
       </c>
       <c r="B495">
-        <v>92.8671599929221</v>
+        <v>92.86716</v>
       </c>
     </row>
     <row r="496">
@@ -5316,7 +5316,7 @@
         </is>
       </c>
       <c r="B496">
-        <v>93.38414159691244</v>
+        <v>93.384142</v>
       </c>
     </row>
     <row r="497">
@@ -5326,7 +5326,7 @@
         </is>
       </c>
       <c r="B497">
-        <v>92.92067948879858</v>
+        <v>92.92067900000001</v>
       </c>
     </row>
     <row r="498">
@@ -5336,7 +5336,7 @@
         </is>
       </c>
       <c r="B498">
-        <v>94.81065516592672</v>
+        <v>94.810655</v>
       </c>
     </row>
     <row r="499">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="B499">
-        <v>95.59423229774708</v>
+        <v>95.59423200000001</v>
       </c>
     </row>
     <row r="500">
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="B500">
-        <v>95.80634155621672</v>
+        <v>95.806342</v>
       </c>
     </row>
     <row r="501">
@@ -5366,7 +5366,7 @@
         </is>
       </c>
       <c r="B501">
-        <v>96.30509452995291</v>
+        <v>96.30509499999999</v>
       </c>
     </row>
     <row r="502">
@@ -5376,7 +5376,7 @@
         </is>
       </c>
       <c r="B502">
-        <v>96.37192722848489</v>
+        <v>96.371927</v>
       </c>
     </row>
     <row r="503">
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="B503">
-        <v>97.08266682358031</v>
+        <v>97.082667</v>
       </c>
     </row>
     <row r="504">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="B504">
-        <v>98.10507616249627</v>
+        <v>98.105076</v>
       </c>
     </row>
     <row r="505">
@@ -5406,7 +5406,7 @@
         </is>
       </c>
       <c r="B505">
-        <v>98.92377179663315</v>
+        <v>98.923772</v>
       </c>
     </row>
     <row r="506">
@@ -5416,7 +5416,7 @@
         </is>
       </c>
       <c r="B506">
-        <v>99.76392288288758</v>
+        <v>99.76392300000001</v>
       </c>
     </row>
     <row r="507">
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="B507">
-        <v>98.03391860288232</v>
+        <v>98.033919</v>
       </c>
     </row>
     <row r="508">
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="B508">
-        <v>98.86676386031452</v>
+        <v>98.866764</v>
       </c>
     </row>
     <row r="509">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="B509">
-        <v>99.45967544719585</v>
+        <v>99.459675</v>
       </c>
     </row>
     <row r="510">
@@ -5456,7 +5456,7 @@
         </is>
       </c>
       <c r="B510">
-        <v>99.20270877063122</v>
+        <v>99.202709</v>
       </c>
     </row>
     <row r="511">
@@ -5466,7 +5466,7 @@
         </is>
       </c>
       <c r="B511">
-        <v>98.27835131833827</v>
+        <v>98.278351</v>
       </c>
     </row>
     <row r="512">
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="B512">
-        <v>100.3204884306012</v>
+        <v>100.320488</v>
       </c>
     </row>
     <row r="513">
@@ -5486,7 +5486,7 @@
         </is>
       </c>
       <c r="B513">
-        <v>100.4100525190967</v>
+        <v>100.410053</v>
       </c>
     </row>
     <row r="514">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="B514">
-        <v>99.61975543100992</v>
+        <v>99.619755</v>
       </c>
     </row>
     <row r="515">
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="B515">
-        <v>98.71003802926644</v>
+        <v>98.710038</v>
       </c>
     </row>
     <row r="516">
@@ -5516,7 +5516,7 @@
         </is>
       </c>
       <c r="B516">
-        <v>98.36289354933007</v>
+        <v>98.362894</v>
       </c>
     </row>
     <row r="517">
@@ -5526,7 +5526,7 @@
         </is>
       </c>
       <c r="B517">
-        <v>97.02034068452292</v>
+        <v>97.020341</v>
       </c>
     </row>
     <row r="518">
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="B518">
-        <v>97.23252679644987</v>
+        <v>97.232527</v>
       </c>
     </row>
     <row r="519">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="B519">
-        <v>97.86641579082035</v>
+        <v>97.866416</v>
       </c>
     </row>
     <row r="520">
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="B520">
-        <v>98.13570967071928</v>
+        <v>98.13571</v>
       </c>
     </row>
     <row r="521">
@@ -5566,7 +5566,7 @@
         </is>
       </c>
       <c r="B521">
-        <v>98.9434055490689</v>
+        <v>98.943406</v>
       </c>
     </row>
     <row r="522">
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="B522">
-        <v>98.78006713985241</v>
+        <v>98.780067</v>
       </c>
     </row>
     <row r="523">
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="B523">
-        <v>98.66287797380176</v>
+        <v>98.66287800000001</v>
       </c>
     </row>
     <row r="524">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="B524">
-        <v>97.15926226694857</v>
+        <v>97.159262</v>
       </c>
     </row>
     <row r="525">
@@ -5606,7 +5606,7 @@
         </is>
       </c>
       <c r="B525">
-        <v>95.81211431057302</v>
+        <v>95.81211399999999</v>
       </c>
     </row>
     <row r="526">
@@ -5616,7 +5616,7 @@
         </is>
       </c>
       <c r="B526">
-        <v>97.39758911638312</v>
+        <v>97.397589</v>
       </c>
     </row>
     <row r="527">
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="B527">
-        <v>96.74441504576235</v>
+        <v>96.744415</v>
       </c>
     </row>
     <row r="528">
@@ -5636,7 +5636,7 @@
         </is>
       </c>
       <c r="B528">
-        <v>96.06897096406642</v>
+        <v>96.068971</v>
       </c>
     </row>
     <row r="529">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="B529">
-        <v>96.01494001140026</v>
+        <v>96.01494</v>
       </c>
     </row>
     <row r="530">
@@ -5656,7 +5656,7 @@
         </is>
       </c>
       <c r="B530">
-        <v>95.99625125881975</v>
+        <v>95.996251</v>
       </c>
     </row>
     <row r="531">
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="B531">
-        <v>95.35972531362094</v>
+        <v>95.359725</v>
       </c>
     </row>
     <row r="532">
@@ -5676,7 +5676,7 @@
         </is>
       </c>
       <c r="B532">
-        <v>95.39153988949327</v>
+        <v>95.39154000000001</v>
       </c>
     </row>
     <row r="533">
@@ -5686,7 +5686,7 @@
         </is>
       </c>
       <c r="B533">
-        <v>96.18910449740619</v>
+        <v>96.189104</v>
       </c>
     </row>
     <row r="534">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="B534">
-        <v>96.25674457298695</v>
+        <v>96.256745</v>
       </c>
     </row>
     <row r="535">
@@ -5706,7 +5706,7 @@
         </is>
       </c>
       <c r="B535">
-        <v>95.83581802034954</v>
+        <v>95.835818</v>
       </c>
     </row>
     <row r="536">
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="B536">
-        <v>94.69440238489813</v>
+        <v>94.694402</v>
       </c>
     </row>
     <row r="537">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B537">
-        <v>94.43900857170773</v>
+        <v>94.439009</v>
       </c>
     </row>
     <row r="538">
@@ -5736,7 +5736,7 @@
         </is>
       </c>
       <c r="B538">
-        <v>95.37315931119629</v>
+        <v>95.373159</v>
       </c>
     </row>
     <row r="539">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="B539">
-        <v>94.79288119671469</v>
+        <v>94.79288099999999</v>
       </c>
     </row>
     <row r="540">
@@ -5756,7 +5756,7 @@
         </is>
       </c>
       <c r="B540">
-        <v>96.29864792272835</v>
+        <v>96.298648</v>
       </c>
     </row>
     <row r="541">
@@ -5766,7 +5766,7 @@
         </is>
       </c>
       <c r="B541">
-        <v>96.67576216385704</v>
+        <v>96.67576200000001</v>
       </c>
     </row>
     <row r="542">
@@ -5776,7 +5776,7 @@
         </is>
       </c>
       <c r="B542">
-        <v>97.64378616182712</v>
+        <v>97.64378600000001</v>
       </c>
     </row>
     <row r="543">
@@ -5786,7 +5786,7 @@
         </is>
       </c>
       <c r="B543">
-        <v>96.94938219320164</v>
+        <v>96.949382</v>
       </c>
     </row>
     <row r="544">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="B544">
-        <v>96.31934061883783</v>
+        <v>96.31934099999999</v>
       </c>
     </row>
     <row r="545">
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="B545">
-        <v>96.86684544504131</v>
+        <v>96.866845</v>
       </c>
     </row>
     <row r="546">
@@ -5816,7 +5816,7 @@
         </is>
       </c>
       <c r="B546">
-        <v>96.10317128165548</v>
+        <v>96.103171</v>
       </c>
     </row>
     <row r="547">
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="B547">
-        <v>95.02997764626535</v>
+        <v>95.029978</v>
       </c>
     </row>
     <row r="548">
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="B548">
-        <v>94.21457797718126</v>
+        <v>94.214578</v>
       </c>
     </row>
     <row r="549">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="B549">
-        <v>93.75587907127789</v>
+        <v>93.75587899999999</v>
       </c>
     </row>
     <row r="550">
@@ -5856,7 +5856,7 @@
         </is>
       </c>
       <c r="B550">
-        <v>92.60986220689087</v>
+        <v>92.60986200000001</v>
       </c>
     </row>
     <row r="551">
@@ -5866,7 +5866,7 @@
         </is>
       </c>
       <c r="B551">
-        <v>92.5526949590576</v>
+        <v>92.552695</v>
       </c>
     </row>
     <row r="552">
@@ -5876,7 +5876,7 @@
         </is>
       </c>
       <c r="B552">
-        <v>92.28548864548614</v>
+        <v>92.285489</v>
       </c>
     </row>
     <row r="553">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B553">
-        <v>92.39076549042674</v>
+        <v>92.390765</v>
       </c>
     </row>
     <row r="554">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="B554">
-        <v>91.79911805199704</v>
+        <v>91.79911800000001</v>
       </c>
     </row>
     <row r="555">
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="B555">
-        <v>91.40652044667803</v>
+        <v>91.40652</v>
       </c>
     </row>
     <row r="556">
@@ -5916,7 +5916,7 @@
         </is>
       </c>
       <c r="B556">
-        <v>90.67590461007586</v>
+        <v>90.675905</v>
       </c>
     </row>
     <row r="557">
@@ -5926,7 +5926,7 @@
         </is>
       </c>
       <c r="B557">
-        <v>89.08070231794593</v>
+        <v>89.080702</v>
       </c>
     </row>
     <row r="558">
@@ -5936,7 +5936,7 @@
         </is>
       </c>
       <c r="B558">
-        <v>88.71394413798245</v>
+        <v>88.713944</v>
       </c>
     </row>
     <row r="559">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="B559">
-        <v>88.82738588852409</v>
+        <v>88.827386</v>
       </c>
     </row>
     <row r="560">
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="B560">
-        <v>89.2684806951293</v>
+        <v>89.26848099999999</v>
       </c>
     </row>
     <row r="561">
@@ -5966,7 +5966,7 @@
         </is>
       </c>
       <c r="B561">
-        <v>90.29808309029758</v>
+        <v>90.29808300000001</v>
       </c>
     </row>
     <row r="562">
@@ -5976,7 +5976,7 @@
         </is>
       </c>
       <c r="B562">
-        <v>92.32157505635114</v>
+        <v>92.321575</v>
       </c>
     </row>
     <row r="563">
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="B563">
-        <v>91.21612868803651</v>
+        <v>91.216129</v>
       </c>
     </row>
     <row r="564">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="B564">
-        <v>90.41855610667875</v>
+        <v>90.418556</v>
       </c>
     </row>
     <row r="565">
@@ -6006,7 +6006,7 @@
         </is>
       </c>
       <c r="B565">
-        <v>90.48425469449876</v>
+        <v>90.484255</v>
       </c>
     </row>
     <row r="566">
@@ -6016,7 +6016,7 @@
         </is>
       </c>
       <c r="B566">
-        <v>91.74166114536767</v>
+        <v>91.74166099999999</v>
       </c>
     </row>
     <row r="567">
@@ -6026,7 +6026,7 @@
         </is>
       </c>
       <c r="B567">
-        <v>91.24794084302073</v>
+        <v>91.247941</v>
       </c>
     </row>
     <row r="568">
@@ -6036,7 +6036,7 @@
         </is>
       </c>
       <c r="B568">
-        <v>92.22935381900776</v>
+        <v>92.229354</v>
       </c>
     </row>
     <row r="569">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="B569">
-        <v>91.61117622566512</v>
+        <v>91.611176</v>
       </c>
     </row>
     <row r="570">
@@ -6056,7 +6056,7 @@
         </is>
       </c>
       <c r="B570">
-        <v>93.50175984725196</v>
+        <v>93.50176</v>
       </c>
     </row>
     <row r="571">
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="B571">
-        <v>92.85294469507802</v>
+        <v>92.85294500000001</v>
       </c>
     </row>
     <row r="572">
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="B572">
-        <v>93.56770213578798</v>
+        <v>93.567702</v>
       </c>
     </row>
     <row r="573">
@@ -6086,7 +6086,7 @@
         </is>
       </c>
       <c r="B573">
-        <v>94.72670165621315</v>
+        <v>94.726702</v>
       </c>
     </row>
     <row r="574">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="B574">
-        <v>95.51710461223763</v>
+        <v>95.517105</v>
       </c>
     </row>
     <row r="575">
@@ -6106,7 +6106,7 @@
         </is>
       </c>
       <c r="B575">
-        <v>94.33423492513593</v>
+        <v>94.33423500000001</v>
       </c>
     </row>
     <row r="576">
@@ -6116,7 +6116,7 @@
         </is>
       </c>
       <c r="B576">
-        <v>93.58650433651775</v>
+        <v>93.58650400000001</v>
       </c>
     </row>
     <row r="577">
@@ -6126,7 +6126,7 @@
         </is>
       </c>
       <c r="B577">
-        <v>93.87651122324731</v>
+        <v>93.87651099999999</v>
       </c>
     </row>
     <row r="578">
@@ -6136,7 +6136,7 @@
         </is>
       </c>
       <c r="B578">
-        <v>94.73555744757668</v>
+        <v>94.735557</v>
       </c>
     </row>
     <row r="579">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="B579">
-        <v>94.82179435006928</v>
+        <v>94.821794</v>
       </c>
     </row>
     <row r="580">
@@ -6156,7 +6156,7 @@
         </is>
       </c>
       <c r="B580">
-        <v>94.40583747999754</v>
+        <v>94.40583700000001</v>
       </c>
     </row>
     <row r="581">
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="B581">
-        <v>94.60496801041006</v>
+        <v>94.604968</v>
       </c>
     </row>
     <row r="582">
@@ -6176,7 +6176,7 @@
         </is>
       </c>
       <c r="B582">
-        <v>93.76915653391592</v>
+        <v>93.76915700000001</v>
       </c>
     </row>
     <row r="583">
@@ -6186,7 +6186,7 @@
         </is>
       </c>
       <c r="B583">
-        <v>93.509939556806</v>
+        <v>93.50994</v>
       </c>
     </row>
     <row r="584">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="B584">
-        <v>94.20434020514928</v>
+        <v>94.20434</v>
       </c>
     </row>
     <row r="585">
@@ -6206,7 +6206,7 @@
         </is>
       </c>
       <c r="B585">
-        <v>94.12572230978371</v>
+        <v>94.125722</v>
       </c>
     </row>
     <row r="586">
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="B586">
-        <v>94.10399882452226</v>
+        <v>94.103999</v>
       </c>
     </row>
     <row r="587">
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="B587">
-        <v>94.21539111123816</v>
+        <v>94.215391</v>
       </c>
     </row>
     <row r="588">
@@ -6236,7 +6236,7 @@
         </is>
       </c>
       <c r="B588">
-        <v>96.16060142593537</v>
+        <v>96.160601</v>
       </c>
     </row>
     <row r="589">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="B589">
-        <v>95.23369231238186</v>
+        <v>95.233692</v>
       </c>
     </row>
     <row r="590">
@@ -6256,7 +6256,7 @@
         </is>
       </c>
       <c r="B590">
-        <v>94.00987610262254</v>
+        <v>94.00987600000001</v>
       </c>
     </row>
     <row r="591">
@@ -6266,7 +6266,7 @@
         </is>
       </c>
       <c r="B591">
-        <v>93.03505172459413</v>
+        <v>93.03505199999999</v>
       </c>
     </row>
     <row r="592">
@@ -6276,7 +6276,7 @@
         </is>
       </c>
       <c r="B592">
-        <v>92.22499532295843</v>
+        <v>92.22499500000001</v>
       </c>
     </row>
     <row r="593">
@@ -6286,7 +6286,7 @@
         </is>
       </c>
       <c r="B593">
-        <v>90.73140706911836</v>
+        <v>90.731407</v>
       </c>
     </row>
     <row r="594">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="B594">
-        <v>90.43756889571382</v>
+        <v>90.437569</v>
       </c>
     </row>
     <row r="595">
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="B595">
-        <v>89.04249261072181</v>
+        <v>89.04249299999999</v>
       </c>
     </row>
     <row r="596">
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="B596">
-        <v>89.23958974214952</v>
+        <v>89.23959000000001</v>
       </c>
     </row>
     <row r="597">
@@ -6326,7 +6326,7 @@
         </is>
       </c>
       <c r="B597">
-        <v>90.04170907554618</v>
+        <v>90.041709</v>
       </c>
     </row>
     <row r="598">
@@ -6336,7 +6336,7 @@
         </is>
       </c>
       <c r="B598">
-        <v>91.87519154821507</v>
+        <v>91.875192</v>
       </c>
     </row>
     <row r="599">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="B599">
-        <v>91.54646335090629</v>
+        <v>91.546463</v>
       </c>
     </row>
     <row r="600">
@@ -6356,7 +6356,7 @@
         </is>
       </c>
       <c r="B600">
-        <v>92.51393230190391</v>
+        <v>92.513932</v>
       </c>
     </row>
     <row r="601">
@@ -6366,7 +6366,7 @@
         </is>
       </c>
       <c r="B601">
-        <v>92.94474330444679</v>
+        <v>92.944743</v>
       </c>
     </row>
     <row r="602">
@@ -6376,7 +6376,7 @@
         </is>
       </c>
       <c r="B602">
-        <v>93.733478187725</v>
+        <v>93.73347800000001</v>
       </c>
     </row>
     <row r="603">
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="B603">
-        <v>93.91096444608962</v>
+        <v>93.91096400000001</v>
       </c>
     </row>
     <row r="604">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="B604">
-        <v>93.05814590899038</v>
+        <v>93.05814599999999</v>
       </c>
     </row>
     <row r="605">
@@ -6406,7 +6406,7 @@
         </is>
       </c>
       <c r="B605">
-        <v>92.72609050218627</v>
+        <v>92.726091</v>
       </c>
     </row>
     <row r="606">
@@ -6416,7 +6416,7 @@
         </is>
       </c>
       <c r="B606">
-        <v>93.31744576105471</v>
+        <v>93.317446</v>
       </c>
     </row>
     <row r="607">
@@ -6426,7 +6426,7 @@
         </is>
       </c>
       <c r="B607">
-        <v>93.76044100357829</v>
+        <v>93.760441</v>
       </c>
     </row>
     <row r="608">
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="B608">
-        <v>94.73339607911898</v>
+        <v>94.733396</v>
       </c>
     </row>
     <row r="609">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="B609">
-        <v>94.72951275938037</v>
+        <v>94.729513</v>
       </c>
     </row>
     <row r="610">
@@ -6456,7 +6456,7 @@
         </is>
       </c>
       <c r="B610">
-        <v>96.67972394856945</v>
+        <v>96.67972399999999</v>
       </c>
     </row>
     <row r="611">
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="B611">
-        <v>97.37812470246853</v>
+        <v>97.378125</v>
       </c>
     </row>
     <row r="612">
@@ -6476,7 +6476,7 @@
         </is>
       </c>
       <c r="B612">
-        <v>97.6926552936151</v>
+        <v>97.692655</v>
       </c>
     </row>
     <row r="613">
@@ -6486,7 +6486,7 @@
         </is>
       </c>
       <c r="B613">
-        <v>97.37447507878009</v>
+        <v>97.374475</v>
       </c>
     </row>
     <row r="614">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="B614">
-        <v>96.88384951647593</v>
+        <v>96.88385</v>
       </c>
     </row>
     <row r="615">
@@ -6506,7 +6506,7 @@
         </is>
       </c>
       <c r="B615">
-        <v>97.24889765774405</v>
+        <v>97.248898</v>
       </c>
     </row>
     <row r="616">
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="B616">
-        <v>97.82943034802865</v>
+        <v>97.82943</v>
       </c>
     </row>
     <row r="617">
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="B617">
-        <v>96.45506002911705</v>
+        <v>96.45506</v>
       </c>
     </row>
     <row r="618">
@@ -6536,7 +6536,7 @@
         </is>
       </c>
       <c r="B618">
-        <v>95.99240892723287</v>
+        <v>95.99240899999999</v>
       </c>
     </row>
     <row r="619">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="B619">
-        <v>96.62968009415368</v>
+        <v>96.62967999999999</v>
       </c>
     </row>
     <row r="620">
@@ -6556,7 +6556,7 @@
         </is>
       </c>
       <c r="B620">
-        <v>96.61778665012145</v>
+        <v>96.61778700000001</v>
       </c>
     </row>
     <row r="621">
@@ -6566,7 +6566,7 @@
         </is>
       </c>
       <c r="B621">
-        <v>97.3676829665679</v>
+        <v>97.367683</v>
       </c>
     </row>
     <row r="622">
@@ -6576,7 +6576,7 @@
         </is>
       </c>
       <c r="B622">
-        <v>97.74257590155983</v>
+        <v>97.742576</v>
       </c>
     </row>
     <row r="623">
@@ -6586,7 +6586,7 @@
         </is>
       </c>
       <c r="B623">
-        <v>97.59882021787386</v>
+        <v>97.59882</v>
       </c>
     </row>
     <row r="624">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="B624">
-        <v>97.42078395340089</v>
+        <v>97.420784</v>
       </c>
     </row>
     <row r="625">
@@ -6606,7 +6606,7 @@
         </is>
       </c>
       <c r="B625">
-        <v>97.37843140027826</v>
+        <v>97.37843100000001</v>
       </c>
     </row>
     <row r="626">
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="B626">
-        <v>97.63184067350866</v>
+        <v>97.63184099999999</v>
       </c>
     </row>
     <row r="627">
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="B627">
-        <v>96.02131076797069</v>
+        <v>96.021311</v>
       </c>
     </row>
     <row r="628">
@@ -6636,7 +6636,7 @@
         </is>
       </c>
       <c r="B628">
-        <v>95.62891359200012</v>
+        <v>95.62891399999999</v>
       </c>
     </row>
     <row r="629">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="B629">
-        <v>96.63140178149004</v>
+        <v>96.63140199999999</v>
       </c>
     </row>
     <row r="630">
@@ -6656,7 +6656,7 @@
         </is>
       </c>
       <c r="B630">
-        <v>96.73048763333101</v>
+        <v>96.73048799999999</v>
       </c>
     </row>
     <row r="631">
@@ -6666,7 +6666,7 @@
         </is>
       </c>
       <c r="B631">
-        <v>96.1597551723074</v>
+        <v>96.159755</v>
       </c>
     </row>
     <row r="632">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B632">
-        <v>95.66562625823336</v>
+        <v>95.665626</v>
       </c>
     </row>
     <row r="633">
@@ -6686,7 +6686,7 @@
         </is>
       </c>
       <c r="B633">
-        <v>95.44175857002941</v>
+        <v>95.441759</v>
       </c>
     </row>
     <row r="634">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="B634">
-        <v>95.17375636461439</v>
+        <v>95.173756</v>
       </c>
     </row>
     <row r="635">
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="B635">
-        <v>95.61703796099719</v>
+        <v>95.61703799999999</v>
       </c>
     </row>
     <row r="636">
@@ -6716,7 +6716,7 @@
         </is>
       </c>
       <c r="B636">
-        <v>94.99595479609621</v>
+        <v>94.995955</v>
       </c>
     </row>
     <row r="637">
@@ -6726,7 +6726,7 @@
         </is>
       </c>
       <c r="B637">
-        <v>96.12045988214012</v>
+        <v>96.12045999999999</v>
       </c>
     </row>
     <row r="638">
@@ -6736,7 +6736,7 @@
         </is>
       </c>
       <c r="B638">
-        <v>95.68212731947902</v>
+        <v>95.68212699999999</v>
       </c>
     </row>
     <row r="639">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="B639">
-        <v>96.52892598610634</v>
+        <v>96.528926</v>
       </c>
     </row>
     <row r="640">
@@ -6756,7 +6756,7 @@
         </is>
       </c>
       <c r="B640">
-        <v>95.81125575234425</v>
+        <v>95.811256</v>
       </c>
     </row>
     <row r="641">
@@ -6766,7 +6766,7 @@
         </is>
       </c>
       <c r="B641">
-        <v>97.12645959538528</v>
+        <v>97.12645999999999</v>
       </c>
     </row>
     <row r="642">
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="B642">
-        <v>98.28783296628134</v>
+        <v>98.28783300000001</v>
       </c>
     </row>
     <row r="643">
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="B643">
-        <v>97.86126484935721</v>
+        <v>97.861265</v>
       </c>
     </row>
     <row r="644">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="B644">
-        <v>98.13833988881801</v>
+        <v>98.13834</v>
       </c>
     </row>
     <row r="645">
@@ -6806,7 +6806,7 @@
         </is>
       </c>
       <c r="B645">
-        <v>98.03245978642289</v>
+        <v>98.03246</v>
       </c>
     </row>
     <row r="646">
@@ -6816,7 +6816,7 @@
         </is>
       </c>
       <c r="B646">
-        <v>97.73849862677416</v>
+        <v>97.738499</v>
       </c>
     </row>
     <row r="647">
@@ -6826,7 +6826,7 @@
         </is>
       </c>
       <c r="B647">
-        <v>99.29199633830873</v>
+        <v>99.291996</v>
       </c>
     </row>
     <row r="648">
@@ -6836,7 +6836,7 @@
         </is>
       </c>
       <c r="B648">
-        <v>97.31331761987285</v>
+        <v>97.313318</v>
       </c>
     </row>
     <row r="649">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="B649">
-        <v>98.87386406309734</v>
+        <v>98.873864</v>
       </c>
     </row>
     <row r="650">
@@ -6856,7 +6856,7 @@
         </is>
       </c>
       <c r="B650">
-        <v>98.63150750694319</v>
+        <v>98.631508</v>
       </c>
     </row>
     <row r="651">
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="B651">
-        <v>99.25215268727521</v>
+        <v>99.25215300000001</v>
       </c>
     </row>
     <row r="652">
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="B652">
-        <v>98.68206072821599</v>
+        <v>98.682061</v>
       </c>
     </row>
     <row r="653">
@@ -6886,7 +6886,7 @@
         </is>
       </c>
       <c r="B653">
-        <v>98.55901145967069</v>
+        <v>98.559011</v>
       </c>
     </row>
     <row r="654">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="B654">
-        <v>99.81756605623997</v>
+        <v>99.817566</v>
       </c>
     </row>
     <row r="655">
@@ -6906,7 +6906,7 @@
         </is>
       </c>
       <c r="B655">
-        <v>99.5189582012394</v>
+        <v>99.518958</v>
       </c>
     </row>
     <row r="656">
@@ -6916,7 +6916,7 @@
         </is>
       </c>
       <c r="B656">
-        <v>100.3495566870976</v>
+        <v>100.349557</v>
       </c>
     </row>
   </sheetData>
